--- a/Report/temp.xlsx
+++ b/Report/temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10430" firstSheet="2" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="10430" firstSheet="2"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -2150,46 +2150,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1083085" cy="344170"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="33684" b="27157"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="68580" y="191770"/>
-          <a:ext cx="1082675" cy="344170"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2209,7 +2169,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6350" y="7219950"/>
+        <a:off x="6350" y="7229475"/>
         <a:ext cx="6039485" cy="2699385"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2218,6 +2178,44 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>153035</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>448310</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 4" descr="logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="153035" y="196850"/>
+          <a:ext cx="1102360" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2483,8 +2481,8 @@
   <sheetPr/>
   <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2585,7 +2583,7 @@
       </c>
       <c r="I12" s="38"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" ht="15.25" spans="1:9">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>14</v>
@@ -3386,7 +3384,7 @@
   <sheetPr/>
   <dimension ref="B2:G6014"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>

--- a/Report/temp.xlsx
+++ b/Report/temp.xlsx
@@ -35,7 +35,7 @@
     <t>:</t>
   </si>
   <si>
-    <t>20 - 23</t>
+    <t>20 - 25</t>
   </si>
   <si>
     <t>Area               : Gudang Jadi</t>
@@ -2169,7 +2169,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6350" y="7229475"/>
+        <a:off x="6350" y="7219950"/>
         <a:ext cx="6039485" cy="2699385"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2481,8 +2481,8 @@
   <sheetPr/>
   <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="I12" s="38"/>
     </row>
-    <row r="13" ht="15.25" spans="1:9">
+    <row r="13" spans="1:9">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>14</v>
@@ -2630,7 +2630,7 @@
         <v/>
       </c>
       <c r="G14" s="23" t="str">
-        <f>IF(ISNUMBER(F14),IF(F14&lt;20,"NOT GOOD",IF(F14&gt;23,"NOT GOOD","GOOD")),"")</f>
+        <f>IF(ISNUMBER(F14),IF(F14&gt;25,"NOT GOOD","GOOD"),"")</f>
         <v/>
       </c>
       <c r="H14" s="24"/>
@@ -2662,7 +2662,7 @@
         <v/>
       </c>
       <c r="G15" s="23" t="str">
-        <f t="shared" ref="G15:G37" si="2">IF(ISNUMBER(F15),IF(F15&lt;20,"NOT GOOD",IF(F15&gt;23,"NOT GOOD","GOOD")),"")</f>
+        <f t="shared" ref="G15:G37" si="2">IF(ISNUMBER(F15),IF(F15&gt;25,"NOT GOOD","GOOD"),"")</f>
         <v/>
       </c>
       <c r="H15" s="28"/>
@@ -3385,7 +3385,7 @@
   <dimension ref="B2:G6014"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -3427,7 +3427,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="3" t="str">
-        <f>IF(ISNUMBER(F3),IF((F3-1)&gt;MROUND(SMALL($B$3:$B$6000,1),2),(F3-1),""),"")</f>
+        <f>IF(ISNUMBER(F3),IF((F3)&gt;SMALL($B$3:$B$6000,1),(F3-1),""),"")</f>
         <v/>
       </c>
       <c r="G4" s="2"/>
@@ -3437,7 +3437,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="3" t="str">
-        <f t="shared" ref="F5:F50" si="0">IF(ISNUMBER(F4),IF((F4-1)&gt;MROUND(SMALL($B$3:$B$6000,1),2),(F4-1),""),"")</f>
+        <f t="shared" ref="F5:F36" si="0">IF(ISNUMBER(F4),IF((F4)&gt;SMALL($B$3:$B$6000,1),(F4-1),""),"")</f>
         <v/>
       </c>
       <c r="G5" s="2"/>
@@ -3729,7 +3729,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="F37" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F37:F62" si="1">IF(ISNUMBER(F36),IF((F36)&gt;SMALL($B$3:$B$6000,1),(F36-1),""),"")</f>
         <v/>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="F38" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="F39" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="F40" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="F41" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="F42" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3783,7 +3783,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="F43" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="F44" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="F45" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="F46" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="F47" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3828,7 +3828,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="F48" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="F49" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="F50" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3854,62 +3854,109 @@
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="2:4">
+      <c r="F51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="2:4">
+      <c r="F52" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="2:4">
+      <c r="F53" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="2:4">
+      <c r="F54" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="2:4">
+      <c r="F55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="2:4">
+      <c r="F56" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="2:4">
+      <c r="F57" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="2:4">
+      <c r="F58" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="2:4">
+      <c r="F59" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="2:4">
+      <c r="F60" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="2:4">
+      <c r="F61" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
+      <c r="F62" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="1"/>
